--- a/Requisitos.xlsx
+++ b/Requisitos.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="17726"/>
-  <workbookPr defaultThemeVersion="166925"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\igorg\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\igorago\Documents\GitHub\Orcamento\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -16,9 +16,9 @@
     <sheet name="Plan1" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Planilha1!$A$1:$F$56</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Planilha1!$A$1:$G$56</definedName>
   </definedNames>
-  <calcPr calcId="171027"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="64">
   <si>
     <t>Colocar nome Orion no sistema.</t>
   </si>
@@ -199,12 +199,33 @@
   </si>
   <si>
     <t>Ok</t>
+  </si>
+  <si>
+    <t>% DE CONCLUSÃO</t>
+  </si>
+  <si>
+    <t>Passei o resumo para Dashboard</t>
+  </si>
+  <si>
+    <t>Verificar todas as mensagens de Erro.</t>
+  </si>
+  <si>
+    <t>Falta fazer validação de input de mais de 30 dias e zerar qtda quando mês = null</t>
+  </si>
+  <si>
+    <t>Verificar cálculos do associados afastados</t>
+  </si>
+  <si>
+    <t>Desabilitar campos dos meses em que o associado não está no CR corrente</t>
+  </si>
+  <si>
+    <t>Adequar os cálculos</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -248,10 +269,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -595,11 +618,11 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr filterMode="1"/>
-  <dimension ref="A1:F56"/>
+  <dimension ref="A1:G58"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="C1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C17" sqref="C17"/>
+      <selection pane="bottomLeft" activeCell="F38" sqref="F38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -609,10 +632,11 @@
     <col min="3" max="3" width="11.5703125" customWidth="1"/>
     <col min="4" max="4" width="18.140625" customWidth="1"/>
     <col min="5" max="5" width="21.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="56.42578125" customWidth="1"/>
+    <col min="6" max="6" width="21.140625" customWidth="1"/>
+    <col min="7" max="7" width="44.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>34</v>
       </c>
@@ -629,10 +653,13 @@
         <v>37</v>
       </c>
       <c r="F1" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="G1" s="2" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -648,11 +675,14 @@
       <c r="E2" s="1">
         <v>42982</v>
       </c>
-      <c r="F2" t="s">
+      <c r="F2" s="3">
+        <v>1</v>
+      </c>
+      <c r="G2" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3">
         <f>A2+1</f>
         <v>2</v>
@@ -669,13 +699,16 @@
       <c r="E3" s="1">
         <v>42982</v>
       </c>
-      <c r="F3" t="s">
+      <c r="F3" s="3">
+        <v>1</v>
+      </c>
+      <c r="G3" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4">
-        <f t="shared" ref="A4:A56" si="0">A3+1</f>
+        <f t="shared" ref="A4:A58" si="0">A3+1</f>
         <v>3</v>
       </c>
       <c r="B4" t="s">
@@ -690,11 +723,14 @@
       <c r="E4" s="1">
         <v>42982</v>
       </c>
-      <c r="F4" t="s">
+      <c r="F4" s="3">
+        <v>1</v>
+      </c>
+      <c r="G4" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="5" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A5">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -711,8 +747,9 @@
       <c r="E5" s="1">
         <v>42989</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="F5" s="1"/>
+    </row>
+    <row r="6" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A6">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -729,8 +766,9 @@
       <c r="E6" s="1">
         <v>42989</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="F6" s="1"/>
+    </row>
+    <row r="7" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A7">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -747,8 +785,9 @@
       <c r="E7" s="1">
         <v>42989</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="F7" s="1"/>
+    </row>
+    <row r="8" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A8">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -765,8 +804,9 @@
       <c r="E8" s="1">
         <v>42989</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="F8" s="1"/>
+    </row>
+    <row r="9" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A9">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -783,8 +823,9 @@
       <c r="E9" s="1">
         <v>42989</v>
       </c>
-    </row>
-    <row r="10" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="F9" s="1"/>
+    </row>
+    <row r="10" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A10">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -801,8 +842,9 @@
       <c r="E10" s="1">
         <v>42989</v>
       </c>
-    </row>
-    <row r="11" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="F10" s="1"/>
+    </row>
+    <row r="11" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A11">
         <f t="shared" si="0"/>
         <v>10</v>
@@ -819,8 +861,9 @@
       <c r="E11" s="1">
         <v>42989</v>
       </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F11" s="1"/>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12">
         <f t="shared" si="0"/>
         <v>11</v>
@@ -837,11 +880,14 @@
       <c r="E12" s="1">
         <v>42982</v>
       </c>
-      <c r="F12" t="s">
+      <c r="F12" s="3">
+        <v>1</v>
+      </c>
+      <c r="G12" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="13" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A13">
         <f t="shared" si="0"/>
         <v>12</v>
@@ -858,8 +904,9 @@
       <c r="E13" s="1">
         <v>42989</v>
       </c>
-    </row>
-    <row r="14" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="F13" s="1"/>
+    </row>
+    <row r="14" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A14">
         <f t="shared" si="0"/>
         <v>13</v>
@@ -876,8 +923,9 @@
       <c r="E14" s="1">
         <v>43008</v>
       </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F14" s="1"/>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15">
         <f t="shared" si="0"/>
         <v>14</v>
@@ -894,8 +942,14 @@
       <c r="E15" s="1">
         <v>42982</v>
       </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F15" s="3">
+        <v>0.8</v>
+      </c>
+      <c r="G15" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16">
         <f t="shared" si="0"/>
         <v>15</v>
@@ -912,8 +966,14 @@
       <c r="E16" s="1">
         <v>42982</v>
       </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F16" s="3">
+        <v>1</v>
+      </c>
+      <c r="G16" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17">
         <f t="shared" si="0"/>
         <v>16</v>
@@ -930,8 +990,9 @@
       <c r="E17" s="1">
         <v>42982</v>
       </c>
-    </row>
-    <row r="18" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="F17" s="1"/>
+    </row>
+    <row r="18" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A18">
         <f t="shared" si="0"/>
         <v>17</v>
@@ -948,8 +1009,9 @@
       <c r="E18" s="1">
         <v>43008</v>
       </c>
-    </row>
-    <row r="19" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="F18" s="1"/>
+    </row>
+    <row r="19" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A19">
         <f t="shared" si="0"/>
         <v>18</v>
@@ -966,8 +1028,9 @@
       <c r="E19" s="1">
         <v>42989</v>
       </c>
-    </row>
-    <row r="20" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="F19" s="1"/>
+    </row>
+    <row r="20" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A20">
         <f t="shared" si="0"/>
         <v>19</v>
@@ -984,8 +1047,9 @@
       <c r="E20" s="1">
         <v>42989</v>
       </c>
-    </row>
-    <row r="21" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="F20" s="1"/>
+    </row>
+    <row r="21" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A21">
         <f t="shared" si="0"/>
         <v>20</v>
@@ -1002,8 +1066,9 @@
       <c r="E21" s="1">
         <v>43008</v>
       </c>
-    </row>
-    <row r="22" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="F21" s="1"/>
+    </row>
+    <row r="22" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A22">
         <f t="shared" si="0"/>
         <v>21</v>
@@ -1020,8 +1085,9 @@
       <c r="E22" s="1">
         <v>42989</v>
       </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F22" s="1"/>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23">
         <f t="shared" si="0"/>
         <v>22</v>
@@ -1038,8 +1104,14 @@
       <c r="E23" s="1">
         <v>42982</v>
       </c>
-    </row>
-    <row r="24" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="F23" s="3">
+        <v>0.25</v>
+      </c>
+      <c r="G23" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A24">
         <f t="shared" si="0"/>
         <v>23</v>
@@ -1056,8 +1128,9 @@
       <c r="E24" s="1">
         <v>42989</v>
       </c>
-    </row>
-    <row r="25" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="F24" s="1"/>
+    </row>
+    <row r="25" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A25">
         <f>A23+1</f>
         <v>23</v>
@@ -1074,8 +1147,9 @@
       <c r="E25" s="1">
         <v>42989</v>
       </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F25" s="1"/>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26">
         <f t="shared" si="0"/>
         <v>24</v>
@@ -1092,8 +1166,14 @@
       <c r="E26" s="1">
         <v>42982</v>
       </c>
-    </row>
-    <row r="27" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="F26" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="G26" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A27">
         <f t="shared" si="0"/>
         <v>25</v>
@@ -1110,8 +1190,9 @@
       <c r="E27" s="1">
         <v>42998</v>
       </c>
-    </row>
-    <row r="28" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="F27" s="1"/>
+    </row>
+    <row r="28" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A28">
         <f t="shared" si="0"/>
         <v>26</v>
@@ -1128,8 +1209,9 @@
       <c r="E28" s="1">
         <v>42989</v>
       </c>
-    </row>
-    <row r="29" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="F28" s="1"/>
+    </row>
+    <row r="29" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A29">
         <f t="shared" si="0"/>
         <v>27</v>
@@ -1146,8 +1228,9 @@
       <c r="E29" s="1">
         <v>42998</v>
       </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F29" s="1"/>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30">
         <f t="shared" si="0"/>
         <v>28</v>
@@ -1164,8 +1247,9 @@
       <c r="E30" s="1">
         <v>42982</v>
       </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F30" s="1"/>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31">
         <f t="shared" si="0"/>
         <v>29</v>
@@ -1182,8 +1266,9 @@
       <c r="E31" s="1">
         <v>42982</v>
       </c>
-    </row>
-    <row r="32" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="F31" s="1"/>
+    </row>
+    <row r="32" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A32">
         <f t="shared" si="0"/>
         <v>30</v>
@@ -1200,8 +1285,9 @@
       <c r="E32" s="1">
         <v>42989</v>
       </c>
-    </row>
-    <row r="33" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="F32" s="1"/>
+    </row>
+    <row r="33" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A33">
         <f t="shared" si="0"/>
         <v>31</v>
@@ -1218,8 +1304,9 @@
       <c r="E33" s="1">
         <v>42998</v>
       </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F33" s="1"/>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34">
         <f t="shared" si="0"/>
         <v>32</v>
@@ -1236,8 +1323,9 @@
       <c r="E34" s="1">
         <v>42982</v>
       </c>
-    </row>
-    <row r="35" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="F34" s="1"/>
+    </row>
+    <row r="35" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A35">
         <f t="shared" si="0"/>
         <v>33</v>
@@ -1254,8 +1342,9 @@
       <c r="E35" s="1">
         <v>42989</v>
       </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F35" s="1"/>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36">
         <f t="shared" si="0"/>
         <v>34</v>
@@ -1272,8 +1361,14 @@
       <c r="E36" s="1">
         <v>42982</v>
       </c>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F36" s="3">
+        <v>1</v>
+      </c>
+      <c r="G36" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37">
         <f t="shared" si="0"/>
         <v>35</v>
@@ -1290,8 +1385,14 @@
       <c r="E37" s="1">
         <v>42982</v>
       </c>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F37" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="G37" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38">
         <f t="shared" si="0"/>
         <v>36</v>
@@ -1308,8 +1409,9 @@
       <c r="E38" s="1">
         <v>42982</v>
       </c>
-    </row>
-    <row r="39" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="F38" s="4"/>
+    </row>
+    <row r="39" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A39">
         <f t="shared" si="0"/>
         <v>37</v>
@@ -1326,8 +1428,9 @@
       <c r="E39" s="1">
         <v>42989</v>
       </c>
-    </row>
-    <row r="40" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="F39" s="1"/>
+    </row>
+    <row r="40" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A40">
         <f t="shared" si="0"/>
         <v>38</v>
@@ -1344,11 +1447,12 @@
       <c r="E40" s="1">
         <v>42998</v>
       </c>
-      <c r="F40" t="s">
+      <c r="F40" s="1"/>
+      <c r="G40" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="41" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A41">
         <f t="shared" si="0"/>
         <v>39</v>
@@ -1365,11 +1469,12 @@
       <c r="E41" s="1">
         <v>42998</v>
       </c>
-      <c r="F41" t="s">
+      <c r="F41" s="1"/>
+      <c r="G41" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="42" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A42">
         <f t="shared" si="0"/>
         <v>40</v>
@@ -1386,11 +1491,12 @@
       <c r="E42" s="1">
         <v>42998</v>
       </c>
-      <c r="F42" t="s">
+      <c r="F42" s="1"/>
+      <c r="G42" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43">
         <f t="shared" si="0"/>
         <v>41</v>
@@ -1407,8 +1513,9 @@
       <c r="E43" s="1">
         <v>42982</v>
       </c>
-    </row>
-    <row r="44" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="F43" s="1"/>
+    </row>
+    <row r="44" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A44">
         <f t="shared" si="0"/>
         <v>42</v>
@@ -1425,8 +1532,9 @@
       <c r="E44" s="1">
         <v>42989</v>
       </c>
-    </row>
-    <row r="45" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="F44" s="1"/>
+    </row>
+    <row r="45" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A45">
         <f t="shared" si="0"/>
         <v>43</v>
@@ -1443,8 +1551,9 @@
       <c r="E45" s="1">
         <v>42979</v>
       </c>
-    </row>
-    <row r="46" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="F45" s="1"/>
+    </row>
+    <row r="46" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A46">
         <f t="shared" si="0"/>
         <v>44</v>
@@ -1461,8 +1570,9 @@
       <c r="E46" s="1">
         <v>42980</v>
       </c>
-    </row>
-    <row r="47" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="F46" s="1"/>
+    </row>
+    <row r="47" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A47">
         <f t="shared" si="0"/>
         <v>45</v>
@@ -1479,63 +1589,100 @@
       <c r="E47" s="1">
         <v>42980</v>
       </c>
-    </row>
-    <row r="48" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="F47" s="1"/>
+    </row>
+    <row r="48" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A48">
         <f t="shared" si="0"/>
         <v>46</v>
       </c>
     </row>
-    <row r="49" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A49">
         <f t="shared" si="0"/>
         <v>47</v>
       </c>
     </row>
-    <row r="50" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A50">
         <f t="shared" si="0"/>
         <v>48</v>
       </c>
     </row>
-    <row r="51" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A51">
         <f t="shared" si="0"/>
         <v>49</v>
       </c>
     </row>
-    <row r="52" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A52">
         <f t="shared" si="0"/>
         <v>50</v>
       </c>
     </row>
-    <row r="53" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A53">
         <f t="shared" si="0"/>
         <v>51</v>
       </c>
     </row>
-    <row r="54" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A54">
         <f t="shared" si="0"/>
         <v>52</v>
       </c>
     </row>
-    <row r="55" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A55">
         <f t="shared" si="0"/>
         <v>53</v>
       </c>
     </row>
-    <row r="56" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A56">
         <f t="shared" si="0"/>
         <v>54</v>
       </c>
     </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A57">
+        <f t="shared" si="0"/>
+        <v>55</v>
+      </c>
+      <c r="B57" t="s">
+        <v>59</v>
+      </c>
+      <c r="C57" t="s">
+        <v>38</v>
+      </c>
+      <c r="D57" t="s">
+        <v>38</v>
+      </c>
+      <c r="E57" s="1">
+        <v>42982</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A58">
+        <f t="shared" si="0"/>
+        <v>56</v>
+      </c>
+      <c r="B58" t="s">
+        <v>61</v>
+      </c>
+      <c r="C58" t="s">
+        <v>38</v>
+      </c>
+      <c r="D58" t="s">
+        <v>38</v>
+      </c>
+      <c r="E58" s="1">
+        <v>42989</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:F56">
+  <autoFilter ref="A1:G56">
     <filterColumn colId="4">
       <filters>
         <dateGroupItem year="2017" month="9" day="4" dateTimeGrouping="day"/>
@@ -1543,7 +1690,7 @@
     </filterColumn>
   </autoFilter>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/Requisitos.xlsx
+++ b/Requisitos.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17726"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\igorago\Documents\GitHub\Orcamento\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\igorg\OneDrive\Orçamento\Sistema\DotNet\Orcamento\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -16,9 +16,9 @@
     <sheet name="Plan1" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Planilha1!$A$1:$G$56</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Planilha1!$A$1:$G$59</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="171027"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="67">
   <si>
     <t>Colocar nome Orion no sistema.</t>
   </si>
@@ -216,16 +216,25 @@
     <t>Verificar cálculos do associados afastados</t>
   </si>
   <si>
-    <t>Desabilitar campos dos meses em que o associado não está no CR corrente</t>
-  </si>
-  <si>
     <t>Adequar os cálculos</t>
+  </si>
+  <si>
+    <t>Colocar ellipsis nos campos.</t>
+  </si>
+  <si>
+    <t>Mostrar info em pop-up das transferências enviadas.</t>
+  </si>
+  <si>
+    <t>Calcular contratações.</t>
+  </si>
+  <si>
+    <t>Mostrar férias com valor negativo em Verbas gerais no relatório resumo</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -618,11 +627,11 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr filterMode="1"/>
-  <dimension ref="A1:G58"/>
+  <dimension ref="A1:G61"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F38" sqref="F38"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A30" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D37" sqref="D37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -708,7 +717,7 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4">
-        <f t="shared" ref="A4:A58" si="0">A3+1</f>
+        <f t="shared" ref="A4:A61" si="0">A3+1</f>
         <v>3</v>
       </c>
       <c r="B4" t="s">
@@ -990,7 +999,12 @@
       <c r="E17" s="1">
         <v>42982</v>
       </c>
-      <c r="F17" s="1"/>
+      <c r="F17" s="3">
+        <v>1</v>
+      </c>
+      <c r="G17" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="18" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A18">
@@ -1167,10 +1181,10 @@
         <v>42982</v>
       </c>
       <c r="F26" s="3">
-        <v>0.5</v>
+        <v>0.95</v>
       </c>
       <c r="G26" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="27" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
@@ -1247,7 +1261,12 @@
       <c r="E30" s="1">
         <v>42982</v>
       </c>
-      <c r="F30" s="1"/>
+      <c r="F30" s="3">
+        <v>1</v>
+      </c>
+      <c r="G30" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31">
@@ -1266,7 +1285,12 @@
       <c r="E31" s="1">
         <v>42982</v>
       </c>
-      <c r="F31" s="1"/>
+      <c r="F31" s="3">
+        <v>1</v>
+      </c>
+      <c r="G31" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="32" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A32">
@@ -1323,7 +1347,12 @@
       <c r="E34" s="1">
         <v>42982</v>
       </c>
-      <c r="F34" s="1"/>
+      <c r="F34" s="3">
+        <v>1</v>
+      </c>
+      <c r="G34" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="35" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A35">
@@ -1389,7 +1418,7 @@
         <v>0.5</v>
       </c>
       <c r="G37" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
@@ -1409,7 +1438,12 @@
       <c r="E38" s="1">
         <v>42982</v>
       </c>
-      <c r="F38" s="4"/>
+      <c r="F38" s="3">
+        <v>1</v>
+      </c>
+      <c r="G38" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="39" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A39">
@@ -1663,7 +1697,7 @@
         <v>42982</v>
       </c>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A58">
         <f t="shared" si="0"/>
         <v>56</v>
@@ -1681,8 +1715,62 @@
         <v>42989</v>
       </c>
     </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A59">
+        <f t="shared" si="0"/>
+        <v>57</v>
+      </c>
+      <c r="B59" t="s">
+        <v>63</v>
+      </c>
+      <c r="C59" t="s">
+        <v>38</v>
+      </c>
+      <c r="D59" t="s">
+        <v>38</v>
+      </c>
+      <c r="E59" s="4">
+        <v>42982</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A60">
+        <f t="shared" si="0"/>
+        <v>58</v>
+      </c>
+      <c r="B60" t="s">
+        <v>65</v>
+      </c>
+      <c r="C60" t="s">
+        <v>38</v>
+      </c>
+      <c r="D60" t="s">
+        <v>38</v>
+      </c>
+      <c r="E60" s="4">
+        <v>42982</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A61">
+        <f t="shared" si="0"/>
+        <v>59</v>
+      </c>
+      <c r="B61" t="s">
+        <v>66</v>
+      </c>
+      <c r="C61" t="s">
+        <v>38</v>
+      </c>
+      <c r="D61" t="s">
+        <v>38</v>
+      </c>
+      <c r="E61" s="4">
+        <v>42982</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:G56">
+  <autoFilter ref="A1:G59">
     <filterColumn colId="4">
       <filters>
         <dateGroupItem year="2017" month="9" day="4" dateTimeGrouping="day"/>

--- a/Requisitos.xlsx
+++ b/Requisitos.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="73">
   <si>
     <t>Colocar nome Orion no sistema.</t>
   </si>
@@ -216,9 +216,6 @@
     <t>Verificar cálculos do associados afastados</t>
   </si>
   <si>
-    <t>Adequar os cálculos</t>
-  </si>
-  <si>
     <t>Colocar ellipsis nos campos.</t>
   </si>
   <si>
@@ -229,6 +226,27 @@
   </si>
   <si>
     <t>Mostrar férias com valor negativo em Verbas gerais no relatório resumo</t>
+  </si>
+  <si>
+    <t>Escolher plano de convênio médico para Contratacao</t>
+  </si>
+  <si>
+    <t>Setar se contratações receberão periculosidade.</t>
+  </si>
+  <si>
+    <t>Orçar Aux. Creche para as novas contratações</t>
+  </si>
+  <si>
+    <t>Setar se pessoa contratada receberá aux. Condutor.</t>
+  </si>
+  <si>
+    <t>Verificar campos dos CRs</t>
+  </si>
+  <si>
+    <t>Adicionar diárias de viagem para pessoal da base e contratações</t>
+  </si>
+  <si>
+    <t>Valor de Previdência privada para contratações</t>
   </si>
 </sst>
 </file>
@@ -627,11 +645,11 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr filterMode="1"/>
-  <dimension ref="A1:G61"/>
+  <dimension ref="A1:G68"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A30" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D37" sqref="D37"/>
+      <pane ySplit="1" topLeftCell="A12" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -717,7 +735,7 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4">
-        <f t="shared" ref="A4:A61" si="0">A3+1</f>
+        <f t="shared" ref="A4:A68" si="0">A3+1</f>
         <v>3</v>
       </c>
       <c r="B4" t="s">
@@ -1184,7 +1202,7 @@
         <v>0.95</v>
       </c>
       <c r="G26" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="27" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
@@ -1415,10 +1433,10 @@
         <v>42982</v>
       </c>
       <c r="F37" s="3">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G37" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
@@ -1721,7 +1739,7 @@
         <v>57</v>
       </c>
       <c r="B59" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C59" t="s">
         <v>38</v>
@@ -1739,7 +1757,7 @@
         <v>58</v>
       </c>
       <c r="B60" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C60" t="s">
         <v>38</v>
@@ -1757,15 +1775,141 @@
         <v>59</v>
       </c>
       <c r="B61" t="s">
+        <v>65</v>
+      </c>
+      <c r="C61" t="s">
+        <v>38</v>
+      </c>
+      <c r="D61" t="s">
+        <v>38</v>
+      </c>
+      <c r="E61" s="4">
+        <v>42982</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A62">
+        <f t="shared" si="0"/>
+        <v>60</v>
+      </c>
+      <c r="B62" t="s">
         <v>66</v>
       </c>
-      <c r="C61" t="s">
-        <v>38</v>
-      </c>
-      <c r="D61" t="s">
-        <v>38</v>
-      </c>
-      <c r="E61" s="4">
+      <c r="C62" t="s">
+        <v>38</v>
+      </c>
+      <c r="D62" t="s">
+        <v>38</v>
+      </c>
+      <c r="E62" s="4">
+        <v>42982</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A63">
+        <f t="shared" si="0"/>
+        <v>61</v>
+      </c>
+      <c r="B63" t="s">
+        <v>67</v>
+      </c>
+      <c r="C63" t="s">
+        <v>38</v>
+      </c>
+      <c r="D63" t="s">
+        <v>38</v>
+      </c>
+      <c r="E63" s="4">
+        <v>42982</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A64">
+        <f t="shared" si="0"/>
+        <v>62</v>
+      </c>
+      <c r="B64" t="s">
+        <v>68</v>
+      </c>
+      <c r="C64" t="s">
+        <v>38</v>
+      </c>
+      <c r="D64" t="s">
+        <v>38</v>
+      </c>
+      <c r="E64" s="4">
+        <v>42982</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A65">
+        <f t="shared" si="0"/>
+        <v>63</v>
+      </c>
+      <c r="B65" t="s">
+        <v>69</v>
+      </c>
+      <c r="C65" t="s">
+        <v>38</v>
+      </c>
+      <c r="D65" t="s">
+        <v>38</v>
+      </c>
+      <c r="E65" s="4">
+        <v>42982</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A66">
+        <f t="shared" si="0"/>
+        <v>64</v>
+      </c>
+      <c r="B66" t="s">
+        <v>70</v>
+      </c>
+      <c r="C66" t="s">
+        <v>38</v>
+      </c>
+      <c r="D66" t="s">
+        <v>38</v>
+      </c>
+      <c r="E66" s="4">
+        <v>42982</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A67">
+        <f t="shared" si="0"/>
+        <v>65</v>
+      </c>
+      <c r="B67" t="s">
+        <v>71</v>
+      </c>
+      <c r="C67" t="s">
+        <v>38</v>
+      </c>
+      <c r="D67" t="s">
+        <v>38</v>
+      </c>
+      <c r="E67" s="4">
+        <v>42982</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A68">
+        <f t="shared" si="0"/>
+        <v>66</v>
+      </c>
+      <c r="B68" t="s">
+        <v>72</v>
+      </c>
+      <c r="C68" t="s">
+        <v>38</v>
+      </c>
+      <c r="D68" t="s">
+        <v>38</v>
+      </c>
+      <c r="E68" s="4">
         <v>42982</v>
       </c>
     </row>

--- a/Requisitos.xlsx
+++ b/Requisitos.xlsx
@@ -16,7 +16,7 @@
     <sheet name="Plan1" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Planilha1!$A$1:$G$59</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Planilha1!$A$1:$G$68</definedName>
   </definedNames>
   <calcPr calcId="171027"/>
   <extLst>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="73">
   <si>
     <t>Colocar nome Orion no sistema.</t>
   </si>
@@ -204,9 +204,6 @@
     <t>% DE CONCLUSÃO</t>
   </si>
   <si>
-    <t>Passei o resumo para Dashboard</t>
-  </si>
-  <si>
     <t>Verificar todas as mensagens de Erro.</t>
   </si>
   <si>
@@ -247,6 +244,9 @@
   </si>
   <si>
     <t>Valor de Previdência privada para contratações</t>
+  </si>
+  <si>
+    <t>Resumo de contratações e pessoal da base por evento (falta resumir por conta)</t>
   </si>
 </sst>
 </file>
@@ -648,8 +648,8 @@
   <dimension ref="A1:G68"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A12" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E17" sqref="E17"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -973,7 +973,7 @@
         <v>0.8</v>
       </c>
       <c r="G15" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
@@ -1137,10 +1137,10 @@
         <v>42982</v>
       </c>
       <c r="F23" s="3">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="G23" t="s">
-        <v>58</v>
+        <v>72</v>
       </c>
     </row>
     <row r="24" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
@@ -1202,7 +1202,7 @@
         <v>0.95</v>
       </c>
       <c r="G26" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="27" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
@@ -1548,7 +1548,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A43">
         <f t="shared" si="0"/>
         <v>41</v>
@@ -1563,7 +1563,7 @@
         <v>38</v>
       </c>
       <c r="E43" s="1">
-        <v>42982</v>
+        <v>42989</v>
       </c>
       <c r="F43" s="1"/>
     </row>
@@ -1649,61 +1649,61 @@
         <v>46</v>
       </c>
     </row>
-    <row r="49" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A49">
         <f t="shared" si="0"/>
         <v>47</v>
       </c>
     </row>
-    <row r="50" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A50">
         <f t="shared" si="0"/>
         <v>48</v>
       </c>
     </row>
-    <row r="51" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A51">
         <f t="shared" si="0"/>
         <v>49</v>
       </c>
     </row>
-    <row r="52" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A52">
         <f t="shared" si="0"/>
         <v>50</v>
       </c>
     </row>
-    <row r="53" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A53">
         <f t="shared" si="0"/>
         <v>51</v>
       </c>
     </row>
-    <row r="54" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A54">
         <f t="shared" si="0"/>
         <v>52</v>
       </c>
     </row>
-    <row r="55" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A55">
         <f t="shared" si="0"/>
         <v>53</v>
       </c>
     </row>
-    <row r="56" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A56">
         <f t="shared" si="0"/>
         <v>54</v>
       </c>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A57">
         <f t="shared" si="0"/>
         <v>55</v>
       </c>
       <c r="B57" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C57" t="s">
         <v>38</v>
@@ -1712,52 +1712,52 @@
         <v>38</v>
       </c>
       <c r="E57" s="1">
-        <v>42982</v>
-      </c>
-    </row>
-    <row r="58" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+        <v>42989</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A58">
         <f t="shared" si="0"/>
         <v>56</v>
       </c>
       <c r="B58" t="s">
+        <v>60</v>
+      </c>
+      <c r="C58" t="s">
+        <v>38</v>
+      </c>
+      <c r="D58" t="s">
+        <v>38</v>
+      </c>
+      <c r="E58" s="1">
+        <v>42989</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A59">
+        <f t="shared" si="0"/>
+        <v>57</v>
+      </c>
+      <c r="B59" t="s">
         <v>61</v>
       </c>
-      <c r="C58" t="s">
-        <v>38</v>
-      </c>
-      <c r="D58" t="s">
-        <v>38</v>
-      </c>
-      <c r="E58" s="1">
-        <v>42989</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A59">
-        <f t="shared" si="0"/>
-        <v>57</v>
-      </c>
-      <c r="B59" t="s">
-        <v>62</v>
-      </c>
       <c r="C59" t="s">
         <v>38</v>
       </c>
       <c r="D59" t="s">
         <v>38</v>
       </c>
-      <c r="E59" s="4">
-        <v>42982</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E59" s="1">
+        <v>42989</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A60">
         <f t="shared" si="0"/>
         <v>58</v>
       </c>
       <c r="B60" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C60" t="s">
         <v>38</v>
@@ -1768,153 +1768,159 @@
       <c r="E60" s="4">
         <v>42982</v>
       </c>
-    </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F60" s="3">
+        <v>1</v>
+      </c>
+      <c r="G60" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A61">
         <f t="shared" si="0"/>
         <v>59</v>
       </c>
       <c r="B61" t="s">
+        <v>64</v>
+      </c>
+      <c r="C61" t="s">
+        <v>38</v>
+      </c>
+      <c r="D61" t="s">
+        <v>38</v>
+      </c>
+      <c r="E61" s="1">
+        <v>42989</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A62">
+        <f t="shared" si="0"/>
+        <v>60</v>
+      </c>
+      <c r="B62" t="s">
         <v>65</v>
       </c>
-      <c r="C61" t="s">
-        <v>38</v>
-      </c>
-      <c r="D61" t="s">
-        <v>38</v>
-      </c>
-      <c r="E61" s="4">
-        <v>42982</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A62">
-        <f t="shared" si="0"/>
-        <v>60</v>
-      </c>
-      <c r="B62" t="s">
+      <c r="C62" t="s">
+        <v>38</v>
+      </c>
+      <c r="D62" t="s">
+        <v>38</v>
+      </c>
+      <c r="E62" s="1">
+        <v>42989</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A63">
+        <f t="shared" si="0"/>
+        <v>61</v>
+      </c>
+      <c r="B63" t="s">
         <v>66</v>
       </c>
-      <c r="C62" t="s">
-        <v>38</v>
-      </c>
-      <c r="D62" t="s">
-        <v>38</v>
-      </c>
-      <c r="E62" s="4">
-        <v>42982</v>
-      </c>
-    </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A63">
-        <f t="shared" si="0"/>
-        <v>61</v>
-      </c>
-      <c r="B63" t="s">
+      <c r="C63" t="s">
+        <v>38</v>
+      </c>
+      <c r="D63" t="s">
+        <v>38</v>
+      </c>
+      <c r="E63" s="1">
+        <v>42989</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A64">
+        <f t="shared" si="0"/>
+        <v>62</v>
+      </c>
+      <c r="B64" t="s">
         <v>67</v>
       </c>
-      <c r="C63" t="s">
-        <v>38</v>
-      </c>
-      <c r="D63" t="s">
-        <v>38</v>
-      </c>
-      <c r="E63" s="4">
-        <v>42982</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A64">
-        <f t="shared" si="0"/>
-        <v>62</v>
-      </c>
-      <c r="B64" t="s">
+      <c r="C64" t="s">
+        <v>38</v>
+      </c>
+      <c r="D64" t="s">
+        <v>38</v>
+      </c>
+      <c r="E64" s="1">
+        <v>42989</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A65">
+        <f t="shared" si="0"/>
+        <v>63</v>
+      </c>
+      <c r="B65" t="s">
         <v>68</v>
       </c>
-      <c r="C64" t="s">
-        <v>38</v>
-      </c>
-      <c r="D64" t="s">
-        <v>38</v>
-      </c>
-      <c r="E64" s="4">
-        <v>42982</v>
-      </c>
-    </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A65">
-        <f t="shared" si="0"/>
-        <v>63</v>
-      </c>
-      <c r="B65" t="s">
+      <c r="C65" t="s">
+        <v>38</v>
+      </c>
+      <c r="D65" t="s">
+        <v>38</v>
+      </c>
+      <c r="E65" s="1">
+        <v>42989</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A66">
+        <f t="shared" si="0"/>
+        <v>64</v>
+      </c>
+      <c r="B66" t="s">
         <v>69</v>
       </c>
-      <c r="C65" t="s">
-        <v>38</v>
-      </c>
-      <c r="D65" t="s">
-        <v>38</v>
-      </c>
-      <c r="E65" s="4">
-        <v>42982</v>
-      </c>
-    </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A66">
-        <f t="shared" si="0"/>
-        <v>64</v>
-      </c>
-      <c r="B66" t="s">
+      <c r="C66" t="s">
+        <v>38</v>
+      </c>
+      <c r="D66" t="s">
+        <v>38</v>
+      </c>
+      <c r="E66" s="1">
+        <v>42989</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A67">
+        <f t="shared" si="0"/>
+        <v>65</v>
+      </c>
+      <c r="B67" t="s">
         <v>70</v>
       </c>
-      <c r="C66" t="s">
-        <v>38</v>
-      </c>
-      <c r="D66" t="s">
-        <v>38</v>
-      </c>
-      <c r="E66" s="4">
-        <v>42982</v>
-      </c>
-    </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A67">
-        <f t="shared" si="0"/>
-        <v>65</v>
-      </c>
-      <c r="B67" t="s">
+      <c r="C67" t="s">
+        <v>38</v>
+      </c>
+      <c r="D67" t="s">
+        <v>38</v>
+      </c>
+      <c r="E67" s="1">
+        <v>42989</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A68">
+        <f t="shared" si="0"/>
+        <v>66</v>
+      </c>
+      <c r="B68" t="s">
         <v>71</v>
       </c>
-      <c r="C67" t="s">
-        <v>38</v>
-      </c>
-      <c r="D67" t="s">
-        <v>38</v>
-      </c>
-      <c r="E67" s="4">
-        <v>42982</v>
-      </c>
-    </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A68">
-        <f t="shared" si="0"/>
-        <v>66</v>
-      </c>
-      <c r="B68" t="s">
-        <v>72</v>
-      </c>
       <c r="C68" t="s">
         <v>38</v>
       </c>
       <c r="D68" t="s">
         <v>38</v>
       </c>
-      <c r="E68" s="4">
-        <v>42982</v>
+      <c r="E68" s="1">
+        <v>42989</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:G59">
+  <autoFilter ref="A1:G68">
     <filterColumn colId="4">
       <filters>
         <dateGroupItem year="2017" month="9" day="4" dateTimeGrouping="day"/>

--- a/Requisitos.xlsx
+++ b/Requisitos.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17726"/>
-  <workbookPr defaultThemeVersion="166925"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\igorg\OneDrive\Orçamento\Sistema\DotNet\Orcamento\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\igorago\Documents\GitHub\Orcamento\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -18,7 +18,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Planilha1!$A$1:$G$68</definedName>
   </definedNames>
-  <calcPr calcId="171027"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="76">
   <si>
     <t>Colocar nome Orion no sistema.</t>
   </si>
@@ -247,12 +247,21 @@
   </si>
   <si>
     <t>Resumo de contratações e pessoal da base por evento (falta resumir por conta)</t>
+  </si>
+  <si>
+    <t>Corrigir menu, quando está em Orçamento, o item não fica cinza.</t>
+  </si>
+  <si>
+    <t>Corrigir menu, slide dows Premissas quando entrar no módulo</t>
+  </si>
+  <si>
+    <t>Impedir data de desligamento inferior à data de admissão ou recebimento de transferência e para funcionários transferidos</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -645,11 +654,11 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr filterMode="1"/>
-  <dimension ref="A1:G68"/>
+  <dimension ref="A1:G71"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E4" sqref="E4"/>
+      <selection pane="bottomLeft" activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -735,7 +744,7 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4">
-        <f t="shared" ref="A4:A68" si="0">A3+1</f>
+        <f t="shared" ref="A4:A71" si="0">A3+1</f>
         <v>3</v>
       </c>
       <c r="B4" t="s">
@@ -1917,6 +1926,60 @@
       </c>
       <c r="E68" s="1">
         <v>42989</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A69">
+        <f t="shared" si="0"/>
+        <v>67</v>
+      </c>
+      <c r="B69" t="s">
+        <v>73</v>
+      </c>
+      <c r="C69" t="s">
+        <v>38</v>
+      </c>
+      <c r="D69" t="s">
+        <v>38</v>
+      </c>
+      <c r="E69" s="4">
+        <v>42982</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A70">
+        <f t="shared" si="0"/>
+        <v>68</v>
+      </c>
+      <c r="B70" t="s">
+        <v>74</v>
+      </c>
+      <c r="C70" t="s">
+        <v>38</v>
+      </c>
+      <c r="D70" t="s">
+        <v>38</v>
+      </c>
+      <c r="E70" s="4">
+        <v>42982</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A71">
+        <f t="shared" si="0"/>
+        <v>69</v>
+      </c>
+      <c r="B71" t="s">
+        <v>75</v>
+      </c>
+      <c r="C71" t="s">
+        <v>36</v>
+      </c>
+      <c r="D71" t="s">
+        <v>39</v>
+      </c>
+      <c r="E71" s="1">
+        <v>42998</v>
       </c>
     </row>
   </sheetData>

--- a/Requisitos.xlsx
+++ b/Requisitos.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="77">
   <si>
     <t>Colocar nome Orion no sistema.</t>
   </si>
@@ -256,6 +256,9 @@
   </si>
   <si>
     <t>Impedir data de desligamento inferior à data de admissão ou recebimento de transferência e para funcionários transferidos</t>
+  </si>
+  <si>
+    <t>Notificação para o usuário, nos relatórios, de que os cálculos estão sendo realizados</t>
   </si>
 </sst>
 </file>
@@ -654,11 +657,11 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr filterMode="1"/>
-  <dimension ref="A1:G71"/>
+  <dimension ref="A1:G72"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F17" sqref="F17"/>
+      <selection pane="bottomLeft" activeCell="B60" sqref="B60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -744,7 +747,7 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4">
-        <f t="shared" ref="A4:A71" si="0">A3+1</f>
+        <f t="shared" ref="A4:A72" si="0">A3+1</f>
         <v>3</v>
       </c>
       <c r="B4" t="s">
@@ -1980,6 +1983,24 @@
       </c>
       <c r="E71" s="1">
         <v>42998</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A72">
+        <f t="shared" si="0"/>
+        <v>70</v>
+      </c>
+      <c r="B72" t="s">
+        <v>76</v>
+      </c>
+      <c r="C72" t="s">
+        <v>38</v>
+      </c>
+      <c r="D72" t="s">
+        <v>39</v>
+      </c>
+      <c r="E72" s="1">
+        <v>42989</v>
       </c>
     </row>
   </sheetData>
